--- a/Data/Processed/Angiosperms/missing_powo_ipni/Haloragaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Haloragaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
